--- a/biology/Botanique/Campanula_rotundifolia/Campanula_rotundifolia.xlsx
+++ b/biology/Botanique/Campanula_rotundifolia/Campanula_rotundifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Campanula rotundifolia
 La Campanule à feuilles rondes (Campanula rotundifolia) est une plante herbacée vivace de la famille des Campanulacées.
@@ -512,9 +524,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Campanula, proviendrait du latin campana signifiant « petite cloche » (allusion à la forme de la corolle)[1], l'épithète spécifique  rotundifolia évoque les feuilles basales arrondies.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Campanula, proviendrait du latin campana signifiant « petite cloche » (allusion à la forme de la corolle), l'épithète spécifique  rotundifolia évoque les feuilles basales arrondies.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Taille variant de 10 à 50 cm, les tiges sont en touffe, raides, fines, nombreuses.
 Fleurs bleues, nombreuses, penchées.
@@ -576,7 +592,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante est une espèce commune, elle pousse tout autour de la terre, dans l'hémisphère nord. L'espèce est présente surtout en milieu boréal, mais on la trouve aussi dans d'autres climats. Elle est indigène partout au Canada, sauf à l'Île-du-Prince-Édouard où elle se serait échappée de cultures. Elle se développe dans les pelouses acidiphiles, les rocailles, les falaises, bords de mer, rochers, montagnes, vieux murs, dans les bois clairs, du niveau de la mer jusqu'à une altitude de 2 100 m.
 </t>
@@ -607,7 +625,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle fleurit de mai à novembre selon son milieu de vie.
 </t>
@@ -638,7 +658,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Campanula rotundifolia subsp. rotundifolia
 Campanula rotundifolia subsp. macrorhiza - Campanule à racine épaisse
